--- a/data/Seances/20200122.xlsx
+++ b/data/Seances/20200122.xlsx
@@ -61,16 +61,16 @@
     <t>DPZV24e40</t>
   </si>
   <si>
+    <t>Tzfc0e70</t>
+  </si>
+  <si>
     <t>Tzfc70e110</t>
   </si>
   <si>
-    <t>Tzfc0e70</t>
+    <t>Tzfc110e150</t>
   </si>
   <si>
     <t>Tzfc150e180</t>
-  </si>
-  <si>
-    <t>Tzfc110e150</t>
   </si>
   <si>
     <t>Tzfc180e250</t>
@@ -163,10 +163,10 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
     <numFmt numFmtId="176" formatCode="[$-409]h:mm:ss\ AM/PM;@"/>
-    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
   <fonts count="21">
@@ -190,31 +190,9 @@
       <charset val="1"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -228,8 +206,46 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri Light"/>
+      <charset val="134"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="15"/>
       <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -243,9 +259,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -268,7 +290,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C5700"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -281,23 +303,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="18"/>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
-      <name val="Calibri Light"/>
-      <charset val="134"/>
-      <scheme val="major"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C5700"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -312,17 +320,9 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -335,7 +335,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -353,13 +365,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -383,13 +389,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -401,7 +407,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -413,13 +455,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -431,25 +485,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -461,7 +497,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -473,49 +509,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -529,11 +529,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thick">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -577,15 +583,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.399975585192419"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -615,89 +612,92 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="thick">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.399975585192419"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="0" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="0" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1029,8 +1029,8 @@
   <sheetPr/>
   <dimension ref="A1:AA85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="Y32" sqref="Y32"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="AC12" sqref="AC12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.4266666666667" defaultRowHeight="15.75"/>
@@ -1168,16 +1168,16 @@
         <v>0</v>
       </c>
       <c r="P2" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="4">
         <v>5.78703703703704e-5</v>
       </c>
-      <c r="Q2" s="4">
-        <v>0</v>
-      </c>
       <c r="R2" s="4">
+        <v>0.00107638888888889</v>
+      </c>
+      <c r="S2" s="4">
         <v>9.25925925925926e-5</v>
-      </c>
-      <c r="S2" s="4">
-        <v>0.00107638888888889</v>
       </c>
       <c r="T2" s="4">
         <v>0</v>
@@ -1251,16 +1251,16 @@
         <v>0</v>
       </c>
       <c r="P3" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="4">
         <v>0.000543981481481481</v>
       </c>
-      <c r="Q3" s="4">
-        <v>0</v>
-      </c>
       <c r="R3" s="4">
-        <v>0</v>
+        <v>0.000798611111111111</v>
       </c>
       <c r="S3" s="4">
-        <v>0.000798611111111111</v>
+        <v>0</v>
       </c>
       <c r="T3" s="4">
         <v>0</v>
@@ -1340,10 +1340,10 @@
         <v>0</v>
       </c>
       <c r="R4" s="4">
+        <v>0.000462962962962963</v>
+      </c>
+      <c r="S4" s="4">
         <v>0.00103009259259259</v>
-      </c>
-      <c r="S4" s="4">
-        <v>0.000462962962962963</v>
       </c>
       <c r="T4" s="4">
         <v>0</v>
@@ -1423,10 +1423,10 @@
         <v>0</v>
       </c>
       <c r="R5" s="4">
-        <v>0</v>
+        <v>0.00125</v>
       </c>
       <c r="S5" s="4">
-        <v>0.00125</v>
+        <v>0</v>
       </c>
       <c r="T5" s="4">
         <v>0</v>
@@ -1589,10 +1589,10 @@
         <v>0</v>
       </c>
       <c r="R7" s="4">
-        <v>0</v>
+        <v>0.00150462962962963</v>
       </c>
       <c r="S7" s="4">
-        <v>0.00150462962962963</v>
+        <v>0</v>
       </c>
       <c r="T7" s="4">
         <v>0</v>
@@ -1998,16 +1998,16 @@
         <v>0</v>
       </c>
       <c r="P12" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="4">
         <v>0.0012037037037037</v>
       </c>
-      <c r="Q12" s="4">
-        <v>0</v>
-      </c>
       <c r="R12" s="4">
-        <v>0</v>
+        <v>0.000335648148148148</v>
       </c>
       <c r="S12" s="4">
-        <v>0.000335648148148148</v>
+        <v>0</v>
       </c>
       <c r="T12" s="4">
         <v>0</v>
@@ -2087,10 +2087,10 @@
         <v>0</v>
       </c>
       <c r="R13" s="4">
+        <v>0.000972222222222222</v>
+      </c>
+      <c r="S13" s="4">
         <v>0.000532407407407407</v>
-      </c>
-      <c r="S13" s="4">
-        <v>0.000972222222222222</v>
       </c>
       <c r="T13" s="4">
         <v>0</v>
@@ -2170,10 +2170,10 @@
         <v>0</v>
       </c>
       <c r="R14" s="4">
+        <v>0.000405092592592593</v>
+      </c>
+      <c r="S14" s="4">
         <v>0.00087962962962963</v>
-      </c>
-      <c r="S14" s="4">
-        <v>0.000405092592592593</v>
       </c>
       <c r="T14" s="4">
         <v>0.000208333333333333</v>
@@ -2253,10 +2253,10 @@
         <v>0</v>
       </c>
       <c r="R15" s="4">
+        <v>0.00149305555555556</v>
+      </c>
+      <c r="S15" s="4">
         <v>1.15740740740741e-5</v>
-      </c>
-      <c r="S15" s="4">
-        <v>0.00149305555555556</v>
       </c>
       <c r="T15" s="4">
         <v>0</v>
@@ -2330,16 +2330,16 @@
         <v>0</v>
       </c>
       <c r="P16" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="4">
         <v>0.000578703703703704</v>
       </c>
-      <c r="Q16" s="4">
-        <v>0</v>
-      </c>
       <c r="R16" s="4">
+        <v>0.000486111111111111</v>
+      </c>
+      <c r="S16" s="4">
         <v>0.000266203703703704</v>
-      </c>
-      <c r="S16" s="4">
-        <v>0.000486111111111111</v>
       </c>
       <c r="T16" s="4">
         <v>0</v>
@@ -2419,10 +2419,10 @@
         <v>0</v>
       </c>
       <c r="R17" s="4">
-        <v>0</v>
+        <v>0.00150462962962963</v>
       </c>
       <c r="S17" s="4">
-        <v>0.00150462962962963</v>
+        <v>0</v>
       </c>
       <c r="T17" s="4">
         <v>0</v>
@@ -2496,16 +2496,16 @@
         <v>0</v>
       </c>
       <c r="P18" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="4">
         <v>0.000127314814814815</v>
       </c>
-      <c r="Q18" s="4">
-        <v>0</v>
-      </c>
       <c r="R18" s="4">
+        <v>0.00099537037037037</v>
+      </c>
+      <c r="S18" s="4">
         <v>0.00171296296296296</v>
-      </c>
-      <c r="S18" s="4">
-        <v>0.00099537037037037</v>
       </c>
       <c r="T18" s="4">
         <v>0</v>
@@ -2579,16 +2579,16 @@
         <v>0</v>
       </c>
       <c r="P19" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="4">
         <v>0.0009375</v>
       </c>
-      <c r="Q19" s="4">
-        <v>0</v>
-      </c>
       <c r="R19" s="4">
-        <v>0</v>
+        <v>0.00291666666666667</v>
       </c>
       <c r="S19" s="4">
-        <v>0.00291666666666667</v>
+        <v>0</v>
       </c>
       <c r="T19" s="4">
         <v>0</v>
@@ -2668,10 +2668,10 @@
         <v>0</v>
       </c>
       <c r="R20" s="4">
+        <v>0.0012037037037037</v>
+      </c>
+      <c r="S20" s="4">
         <v>0.00265046296296296</v>
-      </c>
-      <c r="S20" s="4">
-        <v>0.0012037037037037</v>
       </c>
       <c r="T20" s="4">
         <v>0</v>
@@ -2745,16 +2745,16 @@
         <v>0</v>
       </c>
       <c r="P21" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="4">
         <v>0.00037037037037037</v>
       </c>
-      <c r="Q21" s="4">
-        <v>0</v>
-      </c>
       <c r="R21" s="4">
+        <v>0.0027662037037037</v>
+      </c>
+      <c r="S21" s="4">
         <v>0.000138888888888889</v>
-      </c>
-      <c r="S21" s="4">
-        <v>0.0027662037037037</v>
       </c>
       <c r="T21" s="4">
         <v>0</v>
@@ -2917,10 +2917,10 @@
         <v>0</v>
       </c>
       <c r="R23" s="4">
+        <v>0.00314814814814815</v>
+      </c>
+      <c r="S23" s="4">
         <v>0.000706018518518518</v>
-      </c>
-      <c r="S23" s="4">
-        <v>0.00314814814814815</v>
       </c>
       <c r="T23" s="4">
         <v>0</v>
@@ -3326,16 +3326,16 @@
         <v>0</v>
       </c>
       <c r="P28" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q28" s="4">
         <v>0.0009375</v>
       </c>
-      <c r="Q28" s="4">
-        <v>0</v>
-      </c>
       <c r="R28" s="4">
+        <v>0.00282407407407407</v>
+      </c>
+      <c r="S28" s="4">
         <v>8.10185185185185e-5</v>
-      </c>
-      <c r="S28" s="4">
-        <v>0.00282407407407407</v>
       </c>
       <c r="T28" s="4">
         <v>0</v>
@@ -3415,10 +3415,10 @@
         <v>0</v>
       </c>
       <c r="R29" s="4">
+        <v>0.00277777777777778</v>
+      </c>
+      <c r="S29" s="4">
         <v>0.000844907407407407</v>
-      </c>
-      <c r="S29" s="4">
-        <v>0.00277777777777778</v>
       </c>
       <c r="T29" s="4">
         <v>0.000150462962962963</v>
@@ -3498,10 +3498,10 @@
         <v>0</v>
       </c>
       <c r="R30" s="4">
+        <v>0.00173611111111111</v>
+      </c>
+      <c r="S30" s="4">
         <v>0.00210648148148148</v>
-      </c>
-      <c r="S30" s="4">
-        <v>0.00173611111111111</v>
       </c>
       <c r="T30" s="4">
         <v>0</v>
@@ -3575,16 +3575,16 @@
         <v>0</v>
       </c>
       <c r="P31" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q31" s="4">
         <v>0.000127314814814815</v>
       </c>
-      <c r="Q31" s="4">
-        <v>0</v>
-      </c>
       <c r="R31" s="4">
-        <v>0</v>
+        <v>0.00372685185185185</v>
       </c>
       <c r="S31" s="4">
-        <v>0.00372685185185185</v>
+        <v>0</v>
       </c>
       <c r="T31" s="4">
         <v>0</v>
@@ -3658,16 +3658,16 @@
         <v>0</v>
       </c>
       <c r="P32" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="4">
         <v>0.00217592592592593</v>
       </c>
-      <c r="Q32" s="4">
-        <v>0</v>
-      </c>
       <c r="R32" s="4">
+        <v>0.00142361111111111</v>
+      </c>
+      <c r="S32" s="4">
         <v>0.000243055555555556</v>
-      </c>
-      <c r="S32" s="4">
-        <v>0.00142361111111111</v>
       </c>
       <c r="T32" s="4">
         <v>0</v>
@@ -3741,16 +3741,16 @@
         <v>0</v>
       </c>
       <c r="P33" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q33" s="4">
         <v>8.10185185185185e-5</v>
       </c>
-      <c r="Q33" s="4">
-        <v>0</v>
-      </c>
       <c r="R33" s="4">
-        <v>0</v>
+        <v>0.00377314814814815</v>
       </c>
       <c r="S33" s="4">
-        <v>0.00377314814814815</v>
+        <v>0</v>
       </c>
       <c r="T33" s="4">
         <v>0</v>
@@ -3824,16 +3824,16 @@
         <v>0</v>
       </c>
       <c r="P34" s="4">
+        <v>0.000104166666666667</v>
+      </c>
+      <c r="Q34" s="4">
         <v>0.00037037037037037</v>
       </c>
-      <c r="Q34" s="4">
-        <v>0.000104166666666667</v>
-      </c>
       <c r="R34" s="4">
+        <v>0.00119212962962963</v>
+      </c>
+      <c r="S34" s="4">
         <v>0.00402777777777778</v>
-      </c>
-      <c r="S34" s="4">
-        <v>0.00119212962962963</v>
       </c>
       <c r="T34" s="4">
         <v>0.00555555555555556</v>
@@ -3907,16 +3907,16 @@
         <v>6</v>
       </c>
       <c r="P35" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q35" s="4">
         <v>0.00025462962962963</v>
       </c>
-      <c r="Q35" s="4">
-        <v>0</v>
-      </c>
       <c r="R35" s="4">
+        <v>0.00137731481481481</v>
+      </c>
+      <c r="S35" s="4">
         <v>0.0097337962962963</v>
-      </c>
-      <c r="S35" s="4">
-        <v>0.00137731481481481</v>
       </c>
       <c r="T35" s="4">
         <v>0.00239583333333333</v>
@@ -3996,10 +3996,10 @@
         <v>0</v>
       </c>
       <c r="R36" s="4">
+        <v>0.000162037037037037</v>
+      </c>
+      <c r="S36" s="4">
         <v>0.0047337962962963</v>
-      </c>
-      <c r="S36" s="4">
-        <v>0.000162037037037037</v>
       </c>
       <c r="T36" s="4">
         <v>0.00922453703703704</v>
@@ -4079,10 +4079,10 @@
         <v>0</v>
       </c>
       <c r="R37" s="4">
+        <v>0.000844907407407407</v>
+      </c>
+      <c r="S37" s="4">
         <v>0.0124421296296296</v>
-      </c>
-      <c r="S37" s="4">
-        <v>0.000844907407407407</v>
       </c>
       <c r="T37" s="4">
         <v>0.000613425925925926</v>
@@ -4156,16 +4156,16 @@
         <v>0</v>
       </c>
       <c r="P38" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q38" s="4">
         <v>2.31481481481481e-5</v>
       </c>
-      <c r="Q38" s="4">
-        <v>0</v>
-      </c>
       <c r="R38" s="4">
+        <v>0.00116898148148148</v>
+      </c>
+      <c r="S38" s="4">
         <v>0.00606481481481481</v>
-      </c>
-      <c r="S38" s="4">
-        <v>0.00116898148148148</v>
       </c>
       <c r="T38" s="4">
         <v>0.001875</v>
@@ -4245,10 +4245,10 @@
         <v>0</v>
       </c>
       <c r="R39" s="4">
+        <v>0.00037037037037037</v>
+      </c>
+      <c r="S39" s="4">
         <v>0.00798611111111111</v>
-      </c>
-      <c r="S39" s="4">
-        <v>0.00037037037037037</v>
       </c>
       <c r="T39" s="4">
         <v>0.00572916666666667</v>
@@ -4654,16 +4654,16 @@
         <v>0</v>
       </c>
       <c r="P44" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q44" s="4">
         <v>4.62962962962963e-5</v>
       </c>
-      <c r="Q44" s="4">
-        <v>0</v>
-      </c>
       <c r="R44" s="4">
+        <v>0.00137731481481481</v>
+      </c>
+      <c r="S44" s="4">
         <v>0.0126388888888889</v>
-      </c>
-      <c r="S44" s="4">
-        <v>0.00137731481481481</v>
       </c>
       <c r="T44" s="4">
         <v>0</v>
@@ -4737,16 +4737,16 @@
         <v>0</v>
       </c>
       <c r="P45" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q45" s="4">
         <v>5.78703703703704e-5</v>
       </c>
-      <c r="Q45" s="4">
-        <v>0</v>
-      </c>
       <c r="R45" s="4">
+        <v>0.00128472222222222</v>
+      </c>
+      <c r="S45" s="4">
         <v>0.00943287037037037</v>
-      </c>
-      <c r="S45" s="4">
-        <v>0.00128472222222222</v>
       </c>
       <c r="T45" s="4">
         <v>0.00210648148148148</v>
@@ -4826,10 +4826,10 @@
         <v>0</v>
       </c>
       <c r="R46" s="4">
+        <v>0</v>
+      </c>
+      <c r="S46" s="4">
         <v>0.000358796296296296</v>
-      </c>
-      <c r="S46" s="4">
-        <v>0</v>
       </c>
       <c r="T46" s="4">
         <v>0.0137268518518519</v>
@@ -4909,10 +4909,10 @@
         <v>0</v>
       </c>
       <c r="R47" s="4">
+        <v>0.000532407407407407</v>
+      </c>
+      <c r="S47" s="4">
         <v>0.00988425925925926</v>
-      </c>
-      <c r="S47" s="4">
-        <v>0.000532407407407407</v>
       </c>
       <c r="T47" s="4">
         <v>0.0037037037037037</v>
@@ -4992,10 +4992,10 @@
         <v>0</v>
       </c>
       <c r="R48" s="4">
+        <v>0.000150462962962963</v>
+      </c>
+      <c r="S48" s="4">
         <v>0.0130671296296296</v>
-      </c>
-      <c r="S48" s="4">
-        <v>0.000150462962962963</v>
       </c>
       <c r="T48" s="4">
         <v>0.000891203703703704</v>
@@ -5075,10 +5075,10 @@
         <v>0</v>
       </c>
       <c r="R49" s="4">
+        <v>0.000821759259259259</v>
+      </c>
+      <c r="S49" s="4">
         <v>0.0132523148148148</v>
-      </c>
-      <c r="S49" s="4">
-        <v>0.000821759259259259</v>
       </c>
       <c r="T49" s="4">
         <v>0</v>
@@ -5152,16 +5152,16 @@
         <v>0</v>
       </c>
       <c r="P50" s="4">
+        <v>0.000208333333333333</v>
+      </c>
+      <c r="Q50" s="4">
         <v>9.25925925925926e-5</v>
       </c>
-      <c r="Q50" s="4">
-        <v>0.000208333333333333</v>
-      </c>
       <c r="R50" s="4">
+        <v>0.00101851851851852</v>
+      </c>
+      <c r="S50" s="4">
         <v>0.00219907407407407</v>
-      </c>
-      <c r="S50" s="4">
-        <v>0.00101851851851852</v>
       </c>
       <c r="T50" s="4">
         <v>0</v>
@@ -5235,16 +5235,16 @@
         <v>0</v>
       </c>
       <c r="P51" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q51" s="4">
         <v>0.000115740740740741</v>
       </c>
-      <c r="Q51" s="4">
-        <v>0</v>
-      </c>
       <c r="R51" s="4">
+        <v>0.0030787037037037</v>
+      </c>
+      <c r="S51" s="4">
         <v>0.000474537037037037</v>
-      </c>
-      <c r="S51" s="4">
-        <v>0.0030787037037037</v>
       </c>
       <c r="T51" s="4">
         <v>0</v>
@@ -5324,10 +5324,10 @@
         <v>0</v>
       </c>
       <c r="R52" s="4">
+        <v>0.00280092592592593</v>
+      </c>
+      <c r="S52" s="4">
         <v>0.000648148148148148</v>
-      </c>
-      <c r="S52" s="4">
-        <v>0.00280092592592593</v>
       </c>
       <c r="T52" s="4">
         <v>0.000196759259259259</v>
@@ -5407,10 +5407,10 @@
         <v>0</v>
       </c>
       <c r="R53" s="4">
+        <v>0.00309027777777778</v>
+      </c>
+      <c r="S53" s="4">
         <v>0.000590277777777778</v>
-      </c>
-      <c r="S53" s="4">
-        <v>0.00309027777777778</v>
       </c>
       <c r="T53" s="4">
         <v>0</v>
@@ -5490,10 +5490,10 @@
         <v>0</v>
       </c>
       <c r="R54" s="4">
+        <v>0.00309027777777778</v>
+      </c>
+      <c r="S54" s="4">
         <v>0.000578703703703704</v>
-      </c>
-      <c r="S54" s="4">
-        <v>0.00309027777777778</v>
       </c>
       <c r="T54" s="4">
         <v>0</v>
@@ -5573,10 +5573,10 @@
         <v>0</v>
       </c>
       <c r="R55" s="4">
+        <v>0.00313657407407407</v>
+      </c>
+      <c r="S55" s="4">
         <v>0.000532407407407407</v>
-      </c>
-      <c r="S55" s="4">
-        <v>0.00313657407407407</v>
       </c>
       <c r="T55" s="4">
         <v>0</v>
@@ -5988,10 +5988,10 @@
         <v>0</v>
       </c>
       <c r="R60" s="4">
+        <v>0.00302083333333333</v>
+      </c>
+      <c r="S60" s="4">
         <v>0.000648148148148148</v>
-      </c>
-      <c r="S60" s="4">
-        <v>0.00302083333333333</v>
       </c>
       <c r="T60" s="4">
         <v>0</v>
@@ -6071,10 +6071,10 @@
         <v>0</v>
       </c>
       <c r="R61" s="4">
+        <v>0.0031712962962963</v>
+      </c>
+      <c r="S61" s="4">
         <v>0.000486111111111111</v>
-      </c>
-      <c r="S61" s="4">
-        <v>0.0031712962962963</v>
       </c>
       <c r="T61" s="4">
         <v>0</v>
@@ -6154,10 +6154,10 @@
         <v>0</v>
       </c>
       <c r="R62" s="4">
+        <v>0.00189814814814815</v>
+      </c>
+      <c r="S62" s="4">
         <v>0.00136574074074074</v>
-      </c>
-      <c r="S62" s="4">
-        <v>0.00189814814814815</v>
       </c>
       <c r="T62" s="4">
         <v>0.000405092592592593</v>
@@ -6237,10 +6237,10 @@
         <v>0</v>
       </c>
       <c r="R63" s="4">
+        <v>0.00326388888888889</v>
+      </c>
+      <c r="S63" s="4">
         <v>0.000405092592592593</v>
-      </c>
-      <c r="S63" s="4">
-        <v>0.00326388888888889</v>
       </c>
       <c r="T63" s="4">
         <v>0</v>
@@ -6320,10 +6320,10 @@
         <v>0</v>
       </c>
       <c r="R64" s="4">
+        <v>0.00200231481481481</v>
+      </c>
+      <c r="S64" s="4">
         <v>0.0015625</v>
-      </c>
-      <c r="S64" s="4">
-        <v>0.00200231481481481</v>
       </c>
       <c r="T64" s="4">
         <v>9.25925925925926e-5</v>
@@ -6403,10 +6403,10 @@
         <v>0</v>
       </c>
       <c r="R65" s="4">
+        <v>0.00336805555555556</v>
+      </c>
+      <c r="S65" s="4">
         <v>0.000300925925925926</v>
-      </c>
-      <c r="S65" s="4">
-        <v>0.00336805555555556</v>
       </c>
       <c r="T65" s="4">
         <v>0</v>
@@ -6480,16 +6480,16 @@
         <v>0</v>
       </c>
       <c r="P66" s="4">
+        <v>5.78703703703704e-5</v>
+      </c>
+      <c r="Q66" s="4">
         <v>0.000173611111111111</v>
       </c>
-      <c r="Q66" s="4">
-        <v>5.78703703703704e-5</v>
-      </c>
       <c r="R66" s="4">
+        <v>0.00144675925925926</v>
+      </c>
+      <c r="S66" s="4">
         <v>0.00670138888888889</v>
-      </c>
-      <c r="S66" s="4">
-        <v>0.00144675925925926</v>
       </c>
       <c r="T66" s="4">
         <v>0.00380787037037037</v>
@@ -6569,10 +6569,10 @@
         <v>0</v>
       </c>
       <c r="R67" s="4">
+        <v>0.00186342592592593</v>
+      </c>
+      <c r="S67" s="4">
         <v>0.0117824074074074</v>
-      </c>
-      <c r="S67" s="4">
-        <v>0.00186342592592593</v>
       </c>
       <c r="T67" s="4">
         <v>0.000451388888888889</v>
@@ -6652,10 +6652,10 @@
         <v>0</v>
       </c>
       <c r="R68" s="4">
+        <v>0.000659722222222222</v>
+      </c>
+      <c r="S68" s="4">
         <v>0.0125115740740741</v>
-      </c>
-      <c r="S68" s="4">
-        <v>0.000659722222222222</v>
       </c>
       <c r="T68" s="4">
         <v>0.00099537037037037</v>
@@ -6735,10 +6735,10 @@
         <v>0</v>
       </c>
       <c r="R69" s="4">
+        <v>0.00109953703703704</v>
+      </c>
+      <c r="S69" s="4">
         <v>0.0124189814814815</v>
-      </c>
-      <c r="S69" s="4">
-        <v>0.00109953703703704</v>
       </c>
       <c r="T69" s="4">
         <v>0.000601851851851852</v>
@@ -6818,10 +6818,10 @@
         <v>0</v>
       </c>
       <c r="R70" s="4">
+        <v>0.00100694444444444</v>
+      </c>
+      <c r="S70" s="4">
         <v>0.00847222222222222</v>
-      </c>
-      <c r="S70" s="4">
-        <v>0.00100694444444444</v>
       </c>
       <c r="T70" s="4">
         <v>0.0044212962962963</v>
@@ -6901,10 +6901,10 @@
         <v>0</v>
       </c>
       <c r="R71" s="4">
+        <v>0.000324074074074074</v>
+      </c>
+      <c r="S71" s="4">
         <v>0.00890046296296296</v>
-      </c>
-      <c r="S71" s="4">
-        <v>0.000324074074074074</v>
       </c>
       <c r="T71" s="4">
         <v>0.00497685185185185</v>
@@ -7316,10 +7316,10 @@
         <v>0</v>
       </c>
       <c r="R76" s="4">
+        <v>0.00288194444444444</v>
+      </c>
+      <c r="S76" s="4">
         <v>0.0107291666666667</v>
-      </c>
-      <c r="S76" s="4">
-        <v>0.00288194444444444</v>
       </c>
       <c r="T76" s="4">
         <v>0.000509259259259259</v>
@@ -7393,16 +7393,16 @@
         <v>0</v>
       </c>
       <c r="P77" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q77" s="4">
         <v>0.000358796296296296</v>
       </c>
-      <c r="Q77" s="4">
-        <v>0</v>
-      </c>
       <c r="R77" s="4">
+        <v>0.00928240740740741</v>
+      </c>
+      <c r="S77" s="4">
         <v>0.00378472222222222</v>
-      </c>
-      <c r="S77" s="4">
-        <v>0.00928240740740741</v>
       </c>
       <c r="T77" s="4">
         <v>0</v>
@@ -7482,10 +7482,10 @@
         <v>0</v>
       </c>
       <c r="R78" s="4">
+        <v>9.25925925925926e-5</v>
+      </c>
+      <c r="S78" s="4">
         <v>0.00234953703703704</v>
-      </c>
-      <c r="S78" s="4">
-        <v>9.25925925925926e-5</v>
       </c>
       <c r="T78" s="4">
         <v>0.0116550925925926</v>
@@ -7565,10 +7565,10 @@
         <v>0</v>
       </c>
       <c r="R79" s="4">
+        <v>0.00104166666666667</v>
+      </c>
+      <c r="S79" s="4">
         <v>0.00920138888888889</v>
-      </c>
-      <c r="S79" s="4">
-        <v>0.00104166666666667</v>
       </c>
       <c r="T79" s="4">
         <v>0.00414351851851852</v>
@@ -7648,10 +7648,10 @@
         <v>0</v>
       </c>
       <c r="R80" s="4">
+        <v>0.00068287037037037</v>
+      </c>
+      <c r="S80" s="4">
         <v>0.0125115740740741</v>
-      </c>
-      <c r="S80" s="4">
-        <v>0.00068287037037037</v>
       </c>
       <c r="T80" s="4">
         <v>0.0009375</v>
@@ -7731,10 +7731,10 @@
         <v>0</v>
       </c>
       <c r="R81" s="4">
+        <v>0.00260416666666667</v>
+      </c>
+      <c r="S81" s="4">
         <v>0.0105092592592593</v>
-      </c>
-      <c r="S81" s="4">
-        <v>0.00260416666666667</v>
       </c>
       <c r="T81" s="4">
         <v>1.15740740740741e-5</v>
